--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,30 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -97,22 +94,19 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>much</t>
+    <t>highly</t>
   </si>
   <si>
     <t>social</t>
@@ -497,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.9444444444444444</v>
@@ -616,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.84</v>
@@ -666,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,31 +678,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>24</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L5">
-        <v>25</v>
-      </c>
-      <c r="M5">
-        <v>25</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,16 +731,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +760,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,7 +810,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -834,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +860,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6521739130434783</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -884,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -908,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -916,13 +910,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.625</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -934,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.3541666666666667</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,13 +960,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6086956521739131</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -984,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.2033898305084746</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1016,13 +1010,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.574468085106383</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1037,16 +1031,16 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>0.1429872495446266</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>52</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1066,13 +1060,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5128205128205128</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1084,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.122040072859745</v>
+        <v>0.1060070671378092</v>
       </c>
       <c r="L13">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>964</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,10 +1113,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1134,31 +1128,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.09187279151943463</v>
+        <v>0.05565862708719851</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>257</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1160,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3714285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1184,69 +1178,45 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.05079365079365079</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K15">
-        <v>0.07222222222222222</v>
-      </c>
-      <c r="L15">
-        <v>39</v>
-      </c>
-      <c r="M15">
-        <v>39</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>58</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.06984126984126984</v>
+        <v>0.0466867469879518</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>293</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.05271084337349398</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>629</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.04220779220779221</v>
+        <v>0.02534562211981567</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1310,58 +1280,32 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>590</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.02824207492795389</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.02176696542893726</v>
-      </c>
-      <c r="L20">
-        <v>17</v>
-      </c>
-      <c r="M20">
-        <v>17</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
         <v>764</v>
       </c>
     </row>
